--- a/natmiOut/OldD2/LR-pairs_lrc2p/Reln-Lrp8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Reln-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,16 +94,10 @@
     <t>Lrp8</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H2">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I2">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J2">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N2">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O2">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P2">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q2">
-        <v>0.1268066818980161</v>
+        <v>0.007583758709999999</v>
       </c>
       <c r="R2">
-        <v>0.1268066818980161</v>
+        <v>0.03033503484</v>
       </c>
       <c r="S2">
-        <v>0.002696386408606994</v>
+        <v>9.584697574400276E-05</v>
       </c>
       <c r="T2">
-        <v>0.002696386408606994</v>
+        <v>6.712197208519935E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H3">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I3">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J3">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N3">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O3">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P3">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q3">
-        <v>0.6182817860905068</v>
+        <v>0.04294563244</v>
       </c>
       <c r="R3">
-        <v>0.6182817860905068</v>
+        <v>0.25767379464</v>
       </c>
       <c r="S3">
-        <v>0.01314699335831909</v>
+        <v>0.0005427663442614379</v>
       </c>
       <c r="T3">
-        <v>0.01314699335831909</v>
+        <v>0.0005701517516672636</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H4">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I4">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J4">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N4">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O4">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P4">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q4">
-        <v>0.2869699315538266</v>
+        <v>0.02195168553333333</v>
       </c>
       <c r="R4">
-        <v>0.2869699315538266</v>
+        <v>0.1317101132</v>
       </c>
       <c r="S4">
-        <v>0.006102058752258254</v>
+        <v>0.0002774353392967293</v>
       </c>
       <c r="T4">
-        <v>0.006102058752258254</v>
+        <v>0.0002914334065603746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H5">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I5">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J5">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N5">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O5">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P5">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q5">
-        <v>0.3242149256250894</v>
+        <v>0.028683296601</v>
       </c>
       <c r="R5">
-        <v>0.3242149256250894</v>
+        <v>0.172099779606</v>
       </c>
       <c r="S5">
-        <v>0.006894027237666373</v>
+        <v>0.000362512487369747</v>
       </c>
       <c r="T5">
-        <v>0.006894027237666373</v>
+        <v>0.0003808031427526422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H6">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I6">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J6">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N6">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O6">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P6">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q6">
-        <v>0.08212018647981748</v>
+        <v>0.007203752323</v>
       </c>
       <c r="R6">
-        <v>0.08212018647981748</v>
+        <v>0.043222513938</v>
       </c>
       <c r="S6">
-        <v>0.001746183650436767</v>
+        <v>9.104428299623269E-05</v>
       </c>
       <c r="T6">
-        <v>0.001746183650436767</v>
+        <v>9.563794435380236E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H7">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I7">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J7">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N7">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O7">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P7">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q7">
-        <v>0.1535129354116663</v>
+        <v>0.018241144361</v>
       </c>
       <c r="R7">
-        <v>0.1535129354116663</v>
+        <v>0.07296457744399999</v>
       </c>
       <c r="S7">
-        <v>0.003264261680802299</v>
+        <v>0.0002305398401990587</v>
       </c>
       <c r="T7">
-        <v>0.003264261680802299</v>
+        <v>0.0001614478557956564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H8">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I8">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J8">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N8">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O8">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P8">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q8">
-        <v>3.619338516770866</v>
+        <v>0.15641583243</v>
       </c>
       <c r="R8">
-        <v>3.619338516770866</v>
+        <v>0.93849499458</v>
       </c>
       <c r="S8">
-        <v>0.07696073297318448</v>
+        <v>0.001976854099686435</v>
       </c>
       <c r="T8">
-        <v>0.07696073297318448</v>
+        <v>0.002076596752255389</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H9">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I9">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J9">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N9">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O9">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P9">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q9">
-        <v>17.64710699089956</v>
+        <v>0.88575825052</v>
       </c>
       <c r="R9">
-        <v>17.64710699089956</v>
+        <v>7.97182425468</v>
       </c>
       <c r="S9">
-        <v>0.375243786283785</v>
+        <v>0.01119461375276809</v>
       </c>
       <c r="T9">
-        <v>0.375243786283785</v>
+        <v>0.01763916105298747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H10">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I10">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J10">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N10">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O10">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P10">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q10">
-        <v>8.190746030742984</v>
+        <v>0.4527558559333334</v>
       </c>
       <c r="R10">
-        <v>8.190746030742984</v>
+        <v>4.074802703400001</v>
       </c>
       <c r="S10">
-        <v>0.1741660292902325</v>
+        <v>0.005722133469828896</v>
       </c>
       <c r="T10">
-        <v>0.1741660292902325</v>
+        <v>0.009016267650685503</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H11">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I11">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J11">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N11">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O11">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P11">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q11">
-        <v>9.253799172591126</v>
+        <v>0.5915960523330001</v>
       </c>
       <c r="R11">
-        <v>9.253799172591126</v>
+        <v>5.324364470997001</v>
       </c>
       <c r="S11">
-        <v>0.1967705324631141</v>
+        <v>0.007476858724874812</v>
       </c>
       <c r="T11">
-        <v>0.1967705324631141</v>
+        <v>0.01178115816509436</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H12">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I12">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J12">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N12">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O12">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P12">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q12">
-        <v>2.343888740577948</v>
+        <v>0.148578160159</v>
       </c>
       <c r="R12">
-        <v>2.343888740577948</v>
+        <v>1.337203441431</v>
       </c>
       <c r="S12">
-        <v>0.04983987948256711</v>
+        <v>0.001877798049411864</v>
       </c>
       <c r="T12">
-        <v>0.04983987948256711</v>
+        <v>0.002958814207446089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.265837</v>
+      </c>
+      <c r="H13">
+        <v>0.797511</v>
+      </c>
+      <c r="I13">
+        <v>0.0330031668946923</v>
+      </c>
+      <c r="J13">
+        <v>0.04846681670206063</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.415249</v>
+      </c>
+      <c r="N13">
+        <v>2.830498</v>
+      </c>
+      <c r="O13">
+        <v>0.1440743190886604</v>
+      </c>
+      <c r="P13">
+        <v>0.1030564665366078</v>
+      </c>
+      <c r="Q13">
+        <v>0.376225548413</v>
+      </c>
+      <c r="R13">
+        <v>2.257353290478</v>
+      </c>
+      <c r="S13">
+        <v>0.00475490879812221</v>
+      </c>
+      <c r="T13">
+        <v>0.004994818873591813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.237479</v>
+      </c>
+      <c r="I14">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J14">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.58839</v>
+      </c>
+      <c r="N14">
+        <v>1.17678</v>
+      </c>
+      <c r="O14">
+        <v>0.05989892139727841</v>
+      </c>
+      <c r="P14">
+        <v>0.04284574258344266</v>
+      </c>
+      <c r="Q14">
+        <v>0.04657675627</v>
+      </c>
+      <c r="R14">
+        <v>0.27946053762</v>
+      </c>
+      <c r="S14">
+        <v>0.0005886581310344748</v>
+      </c>
+      <c r="T14">
+        <v>0.0006183590196609922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.237479</v>
+      </c>
+      <c r="I15">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J15">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.33196</v>
+      </c>
+      <c r="N15">
+        <v>9.99588</v>
+      </c>
+      <c r="O15">
+        <v>0.3391981681178738</v>
+      </c>
+      <c r="P15">
+        <v>0.3639430491468098</v>
+      </c>
+      <c r="Q15">
+        <v>0.2637568429466667</v>
+      </c>
+      <c r="R15">
+        <v>2.37381158652</v>
+      </c>
+      <c r="S15">
+        <v>0.003333478383863812</v>
+      </c>
+      <c r="T15">
+        <v>0.005252504765078365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.237479</v>
+      </c>
+      <c r="I16">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J16">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.703133333333334</v>
+      </c>
+      <c r="N16">
+        <v>5.109400000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.173381345132341</v>
+      </c>
+      <c r="P16">
+        <v>0.1860297057698482</v>
+      </c>
+      <c r="Q16">
+        <v>0.1348194669555556</v>
+      </c>
+      <c r="R16">
+        <v>1.2133752026</v>
+      </c>
+      <c r="S16">
+        <v>0.001703909456147309</v>
+      </c>
+      <c r="T16">
+        <v>0.002684820930892668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.237479</v>
+      </c>
+      <c r="I17">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J17">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.225409</v>
+      </c>
+      <c r="N17">
+        <v>6.676227000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2265497353248627</v>
+      </c>
+      <c r="P17">
+        <v>0.2430767887545928</v>
+      </c>
+      <c r="Q17">
+        <v>0.176162634637</v>
+      </c>
+      <c r="R17">
+        <v>1.585463711733</v>
+      </c>
+      <c r="S17">
+        <v>0.002226423125354441</v>
+      </c>
+      <c r="T17">
+        <v>0.003508136765371817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.237479</v>
+      </c>
+      <c r="I18">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J18">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.558907</v>
+      </c>
+      <c r="N18">
+        <v>1.676721</v>
+      </c>
+      <c r="O18">
+        <v>0.05689751093898382</v>
+      </c>
+      <c r="P18">
+        <v>0.06104824720869879</v>
+      </c>
+      <c r="Q18">
+        <v>0.04424289181766667</v>
+      </c>
+      <c r="R18">
+        <v>0.398186026359</v>
+      </c>
+      <c r="S18">
+        <v>0.0005591616955456163</v>
+      </c>
+      <c r="T18">
+        <v>0.0008810615015593387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.237479</v>
+      </c>
+      <c r="I19">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J19">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.415249</v>
+      </c>
+      <c r="N19">
+        <v>2.830498</v>
+      </c>
+      <c r="O19">
+        <v>0.1440743190886604</v>
+      </c>
+      <c r="P19">
+        <v>0.1030564665366078</v>
+      </c>
+      <c r="Q19">
+        <v>0.1120306390903333</v>
+      </c>
+      <c r="R19">
+        <v>0.6721838345419999</v>
+      </c>
+      <c r="S19">
+        <v>0.001415893933085894</v>
+      </c>
+      <c r="T19">
+        <v>0.001487333204534747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.697008</v>
+      </c>
+      <c r="H20">
+        <v>15.394016</v>
+      </c>
+      <c r="I20">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J20">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.58839</v>
+      </c>
+      <c r="N20">
+        <v>1.17678</v>
+      </c>
+      <c r="O20">
+        <v>0.05989892139727841</v>
+      </c>
+      <c r="P20">
+        <v>0.04284574258344266</v>
+      </c>
+      <c r="Q20">
+        <v>4.52884253712</v>
+      </c>
+      <c r="R20">
+        <v>18.11537014848</v>
+      </c>
+      <c r="S20">
+        <v>0.0572375621908135</v>
+      </c>
+      <c r="T20">
+        <v>0.04008366483944108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.23075727045983</v>
-      </c>
-      <c r="H13">
-        <v>6.23075727045983</v>
-      </c>
-      <c r="I13">
-        <v>0.9661500889119102</v>
-      </c>
-      <c r="J13">
-        <v>0.9661500889119102</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.703219992409914</v>
-      </c>
-      <c r="N13">
-        <v>0.703219992409914</v>
-      </c>
-      <c r="O13">
-        <v>0.09643339009982929</v>
-      </c>
-      <c r="P13">
-        <v>0.09643339009982929</v>
-      </c>
-      <c r="Q13">
-        <v>4.381593080440778</v>
-      </c>
-      <c r="R13">
-        <v>4.381593080440778</v>
-      </c>
-      <c r="S13">
-        <v>0.093169128419027</v>
-      </c>
-      <c r="T13">
-        <v>0.093169128419027</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.697008</v>
+      </c>
+      <c r="H21">
+        <v>15.394016</v>
+      </c>
+      <c r="I21">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J21">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.33196</v>
+      </c>
+      <c r="N21">
+        <v>9.99588</v>
+      </c>
+      <c r="O21">
+        <v>0.3391981681178738</v>
+      </c>
+      <c r="P21">
+        <v>0.3639430491468098</v>
+      </c>
+      <c r="Q21">
+        <v>25.64612277568</v>
+      </c>
+      <c r="R21">
+        <v>153.87673665408</v>
+      </c>
+      <c r="S21">
+        <v>0.3241273096369805</v>
+      </c>
+      <c r="T21">
+        <v>0.3404812315770767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.697008</v>
+      </c>
+      <c r="H22">
+        <v>15.394016</v>
+      </c>
+      <c r="I22">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J22">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.703133333333334</v>
+      </c>
+      <c r="N22">
+        <v>5.109400000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.173381345132341</v>
+      </c>
+      <c r="P22">
+        <v>0.1860297057698482</v>
+      </c>
+      <c r="Q22">
+        <v>13.10903089173334</v>
+      </c>
+      <c r="R22">
+        <v>78.65418535040001</v>
+      </c>
+      <c r="S22">
+        <v>0.1656778668670681</v>
+      </c>
+      <c r="T22">
+        <v>0.1740371837817097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.697008</v>
+      </c>
+      <c r="H23">
+        <v>15.394016</v>
+      </c>
+      <c r="I23">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J23">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.225409</v>
+      </c>
+      <c r="N23">
+        <v>6.676227000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.2265497353248627</v>
+      </c>
+      <c r="P23">
+        <v>0.2430767887545928</v>
+      </c>
+      <c r="Q23">
+        <v>17.128990876272</v>
+      </c>
+      <c r="R23">
+        <v>102.773945257632</v>
+      </c>
+      <c r="S23">
+        <v>0.2164839409872637</v>
+      </c>
+      <c r="T23">
+        <v>0.227406690681374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.697008</v>
+      </c>
+      <c r="H24">
+        <v>15.394016</v>
+      </c>
+      <c r="I24">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J24">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.558907</v>
+      </c>
+      <c r="N24">
+        <v>1.676721</v>
+      </c>
+      <c r="O24">
+        <v>0.05689751093898382</v>
+      </c>
+      <c r="P24">
+        <v>0.06104824720869879</v>
+      </c>
+      <c r="Q24">
+        <v>4.301911650256001</v>
+      </c>
+      <c r="R24">
+        <v>25.811469901536</v>
+      </c>
+      <c r="S24">
+        <v>0.05436950691103011</v>
+      </c>
+      <c r="T24">
+        <v>0.05711273355533956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.697008</v>
+      </c>
+      <c r="H25">
+        <v>15.394016</v>
+      </c>
+      <c r="I25">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J25">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.415249</v>
+      </c>
+      <c r="N25">
+        <v>2.830498</v>
+      </c>
+      <c r="O25">
+        <v>0.1440743190886604</v>
+      </c>
+      <c r="P25">
+        <v>0.1030564665366078</v>
+      </c>
+      <c r="Q25">
+        <v>10.893182874992</v>
+      </c>
+      <c r="R25">
+        <v>43.572731499968</v>
+      </c>
+      <c r="S25">
+        <v>0.1376729765172532</v>
+      </c>
+      <c r="T25">
+        <v>0.09641286660268555</v>
       </c>
     </row>
   </sheetData>
